--- a/MGA Window Quotaion/Data/data.xlsx
+++ b/MGA Window Quotaion/Data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkLegacy\Documents\Window Q\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FD9604-D77C-4BB8-9707-8F5945A83CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8303A3-E68E-43A5-8B34-6C815C795140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Sr.No</t>
   </si>
@@ -167,6 +167,36 @@
   </si>
   <si>
     <t>instTotVar</t>
+  </si>
+  <si>
+    <t>dateAndTime</t>
+  </si>
+  <si>
+    <t>quotaionNumber</t>
+  </si>
+  <si>
+    <t>invoiceNumber</t>
+  </si>
+  <si>
+    <t>modeTerms</t>
+  </si>
+  <si>
+    <t>termsOfDel</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>custGstNumb</t>
+  </si>
+  <si>
+    <t>custPanNumb</t>
+  </si>
+  <si>
+    <t>hsnSacVar</t>
+  </si>
+  <si>
+    <t>totSqftEntQuantVar</t>
   </si>
 </sst>
 </file>
@@ -198,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,30 +251,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -585,15 +598,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW1"/>
+  <dimension ref="A1:BG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,61 +698,91 @@
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
